--- a/bots/crawl_ch/output/clothes_2022-08-05.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-05.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6075749003</t>
+          <t>3305484006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12</t>
+          <t>Naturaline Damen Slip schwarz L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-noir-11-12/p/6075749003</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -558,12 +558,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,34 +572,34 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Noir  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -628,12 +628,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -788,45 +788,65 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -834,70 +854,52 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6866452</t>
+          <t>3875554005</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Naturaline Damen Bustier Schwarz M</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -905,37 +907,35 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3875554005</t>
+          <t>3450446005</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M</t>
+          <t>Naturaline Herren Shirt schwarz S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-bustier-schwarz-m/p/3875554005</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -953,34 +953,34 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Naturaline Damen Bustier Schwarz M 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz S 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1004,85 +1004,105 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 19.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6031467009</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1092,12 +1112,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1106,75 +1126,57 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6866483</t>
+          <t>3305779007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+          <t>Naturaline Damen Panty S weiss</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tena</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -1182,29 +1184,29 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1214,12 +1216,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1228,42 +1230,40 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3305779007</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1281,34 +1281,34 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>6031467009</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1332,17 +1332,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:22</t>
+          <t>2022-08-05 20:58:59</t>
         </is>
       </c>
     </row>
